--- a/HLS_man/COP26/COP26_man_philippines.xlsx
+++ b/HLS_man/COP26/COP26_man_philippines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5AAFC6-43A5-43FF-9CA5-7827487CF91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA0305B-ABAA-4B67-93F1-86495015D9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>COP26_philippines</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -164,53 +158,43 @@
 of our commitments and obligat ions to humanity.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>moral responsibilty, climate justice</t>
-  </si>
-  <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>present</t>
-  </si>
-  <si>
     <t>egalitarian</t>
   </si>
   <si>
-    <t xml:space="preserve">Moral judgement on the need to take on action to reach climate justice, an egalitarian idea. </t>
-  </si>
-  <si>
     <t>financial resources</t>
   </si>
   <si>
-    <t>moral responsibility, finance, historical responsibility</t>
-  </si>
-  <si>
     <t>prioritarian</t>
   </si>
   <si>
     <t xml:space="preserve">Prescribing the moral obligation to help the worst off based on historic emissions. </t>
   </si>
   <si>
-    <t>moral responsibility, action</t>
-  </si>
-  <si>
     <t>utilitarian</t>
   </si>
   <si>
-    <t xml:space="preserve">Moral judgement on the need to act for the benefit of all. </t>
+    <t>new UNFCCC policy</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral judgement on the need to take on action to reach climate justice, climate justice is seen as general egalitarian motivation.  </t>
+  </si>
+  <si>
+    <t>moral responsibility</t>
+  </si>
+  <si>
+    <t>proportional to contribution</t>
+  </si>
+  <si>
+    <t>commitments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral judgement on the need to act motivated by the benefit of all, the obligation to humanity. </t>
   </si>
 </sst>
 </file>
@@ -580,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,7 +575,7 @@
     <col min="1" max="1" width="44.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,179 +589,176 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
+      <c r="B21">
+        <v>2</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -786,81 +767,67 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
         <v>38</v>
       </c>
-      <c r="G21" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="H21" t="s">
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
         <v>41</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
